--- a/TestDrivenDev/TDD_PivotStructure/PivoteerWPF/ProjectSamples/Stocks.xlsx
+++ b/TestDrivenDev/TDD_PivotStructure/PivoteerWPF/ProjectSamples/Stocks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="89">
   <si>
     <t>Sector</t>
   </si>
@@ -613,11 +613,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -779,13 +777,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -794,27 +792,27 @@
         <v>2019</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>22</v>
       </c>
       <c r="I6">
-        <v>0.7</v>
+        <v>73.34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -823,27 +821,27 @@
         <v>2019</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>22</v>
       </c>
       <c r="I7">
-        <v>49.49</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -852,21 +850,21 @@
         <v>2019</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>22</v>
       </c>
       <c r="I8">
-        <v>31.57</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -881,4424 +879,16 @@
         <v>2019</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>22</v>
       </c>
       <c r="I9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>2019</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>22</v>
-      </c>
-      <c r="I10">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>2019</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>22</v>
-      </c>
-      <c r="I11">
-        <v>61.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>2019</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>22</v>
-      </c>
-      <c r="I12">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>2019</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>22</v>
-      </c>
-      <c r="I13">
-        <v>48.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>2019</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <v>22</v>
-      </c>
-      <c r="I14">
-        <v>153.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>2019</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>22</v>
-      </c>
-      <c r="I15">
-        <v>198.78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>2019</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>22</v>
-      </c>
-      <c r="I16">
-        <v>47.49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17">
-        <v>2019</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <v>22</v>
-      </c>
-      <c r="I17">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>2019</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>22</v>
-      </c>
-      <c r="I18">
-        <v>40.619999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>2019</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <v>22</v>
-      </c>
-      <c r="I19">
-        <v>69.27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>2019</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>22</v>
-      </c>
-      <c r="I20">
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>2019</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>22</v>
-      </c>
-      <c r="I21">
-        <v>29.53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22">
-        <v>2019</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>22</v>
-      </c>
-      <c r="I22">
-        <v>19.89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>2019</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-      <c r="H23">
-        <v>22</v>
-      </c>
-      <c r="I23">
-        <v>78.78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>2019</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>22</v>
-      </c>
-      <c r="I24">
-        <v>84.46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>2019</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>22</v>
-      </c>
-      <c r="I25">
-        <v>37.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>2019</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
-        <v>22</v>
-      </c>
-      <c r="I26">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27">
-        <v>2019</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>22</v>
-      </c>
-      <c r="I27">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28">
-        <v>2019</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <v>22</v>
-      </c>
-      <c r="I28">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>2019</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-      <c r="H29">
-        <v>22</v>
-      </c>
-      <c r="I29">
-        <v>81.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30">
-        <v>2019</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>22</v>
-      </c>
-      <c r="I30">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>2019</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>22</v>
-      </c>
-      <c r="I31">
-        <v>6.46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>2019</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <v>22</v>
-      </c>
-      <c r="I32">
-        <v>39.42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>2019</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-      <c r="H33">
-        <v>22</v>
-      </c>
-      <c r="I33">
-        <v>256.04000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>2019</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-      <c r="H34">
-        <v>22</v>
-      </c>
-      <c r="I34">
-        <v>12.27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35">
-        <v>2019</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-      <c r="H35">
-        <v>22</v>
-      </c>
-      <c r="I35">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>2019</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-      <c r="H36">
-        <v>22</v>
-      </c>
-      <c r="I36">
-        <v>32.909999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37">
-        <v>2019</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>6</v>
-      </c>
-      <c r="H37">
-        <v>22</v>
-      </c>
-      <c r="I37">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38">
-        <v>2019</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-      <c r="H38">
-        <v>22</v>
-      </c>
-      <c r="I38">
-        <v>35.26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>2019</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>6</v>
-      </c>
-      <c r="H39">
-        <v>22</v>
-      </c>
-      <c r="I39">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40">
-        <v>2019</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>6</v>
-      </c>
-      <c r="H40">
-        <v>22</v>
-      </c>
-      <c r="I40">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41">
-        <v>2019</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>6</v>
-      </c>
-      <c r="H41">
-        <v>22</v>
-      </c>
-      <c r="I41">
-        <v>10.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <v>2019</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>6</v>
-      </c>
-      <c r="H42">
-        <v>24</v>
-      </c>
-      <c r="I42">
-        <v>73.34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43">
-        <v>2019</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>6</v>
-      </c>
-      <c r="H43">
-        <v>24</v>
-      </c>
-      <c r="I43">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44">
-        <v>2019</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>6</v>
-      </c>
-      <c r="H44">
-        <v>24</v>
-      </c>
-      <c r="I44">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>2019</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>6</v>
-      </c>
-      <c r="H45">
-        <v>24</v>
-      </c>
-      <c r="I45">
         <v>68.88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46">
-        <v>2019</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>6</v>
-      </c>
-      <c r="H46">
-        <v>24</v>
-      </c>
-      <c r="I46">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47">
-        <v>2019</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <v>6</v>
-      </c>
-      <c r="H47">
-        <v>24</v>
-      </c>
-      <c r="I47">
-        <v>49.49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48">
-        <v>2019</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-      <c r="H48">
-        <v>24</v>
-      </c>
-      <c r="I48">
-        <v>31.57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49">
-        <v>2019</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>6</v>
-      </c>
-      <c r="H49">
-        <v>24</v>
-      </c>
-      <c r="I49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50">
-        <v>2019</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50">
-        <v>6</v>
-      </c>
-      <c r="H50">
-        <v>24</v>
-      </c>
-      <c r="I50">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51">
-        <v>2019</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>6</v>
-      </c>
-      <c r="H51">
-        <v>24</v>
-      </c>
-      <c r="I51">
-        <v>61.31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52">
-        <v>2019</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52">
-        <v>6</v>
-      </c>
-      <c r="H52">
-        <v>24</v>
-      </c>
-      <c r="I52">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53">
-        <v>2019</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53">
-        <v>6</v>
-      </c>
-      <c r="H53">
-        <v>24</v>
-      </c>
-      <c r="I53">
-        <v>48.11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54">
-        <v>2019</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="G54">
-        <v>6</v>
-      </c>
-      <c r="H54">
-        <v>24</v>
-      </c>
-      <c r="I54">
-        <v>153.24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55">
-        <v>2019</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55">
-        <v>6</v>
-      </c>
-      <c r="H55">
-        <v>24</v>
-      </c>
-      <c r="I55">
-        <v>198.78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56">
-        <v>2019</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56">
-        <v>6</v>
-      </c>
-      <c r="H56">
-        <v>24</v>
-      </c>
-      <c r="I56">
-        <v>47.49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57">
-        <v>2019</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>6</v>
-      </c>
-      <c r="H57">
-        <v>24</v>
-      </c>
-      <c r="I57">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58">
-        <v>2019</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58">
-        <v>6</v>
-      </c>
-      <c r="H58">
-        <v>24</v>
-      </c>
-      <c r="I58">
-        <v>40.619999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59">
-        <v>2019</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <v>6</v>
-      </c>
-      <c r="H59">
-        <v>24</v>
-      </c>
-      <c r="I59">
-        <v>69.27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60">
-        <v>2019</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-      <c r="G60">
-        <v>6</v>
-      </c>
-      <c r="H60">
-        <v>24</v>
-      </c>
-      <c r="I60">
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61">
-        <v>2019</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61">
-        <v>6</v>
-      </c>
-      <c r="H61">
-        <v>24</v>
-      </c>
-      <c r="I61">
-        <v>29.53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62">
-        <v>2019</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62">
-        <v>6</v>
-      </c>
-      <c r="H62">
-        <v>24</v>
-      </c>
-      <c r="I62">
-        <v>19.89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63">
-        <v>2019</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63">
-        <v>6</v>
-      </c>
-      <c r="H63">
-        <v>24</v>
-      </c>
-      <c r="I63">
-        <v>78.78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64">
-        <v>2019</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64">
-        <v>6</v>
-      </c>
-      <c r="H64">
-        <v>24</v>
-      </c>
-      <c r="I64">
-        <v>84.46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65">
-        <v>2019</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="G65">
-        <v>6</v>
-      </c>
-      <c r="H65">
-        <v>24</v>
-      </c>
-      <c r="I65">
-        <v>37.75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66">
-        <v>2019</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66">
-        <v>6</v>
-      </c>
-      <c r="H66">
-        <v>24</v>
-      </c>
-      <c r="I66">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67">
-        <v>2019</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-      <c r="G67">
-        <v>6</v>
-      </c>
-      <c r="H67">
-        <v>24</v>
-      </c>
-      <c r="I67">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68">
-        <v>2019</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-      <c r="G68">
-        <v>6</v>
-      </c>
-      <c r="H68">
-        <v>24</v>
-      </c>
-      <c r="I68">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69">
-        <v>2019</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>6</v>
-      </c>
-      <c r="H69">
-        <v>24</v>
-      </c>
-      <c r="I69">
-        <v>81.75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" t="s">
-        <v>68</v>
-      </c>
-      <c r="E70">
-        <v>2019</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70">
-        <v>6</v>
-      </c>
-      <c r="H70">
-        <v>24</v>
-      </c>
-      <c r="I70">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>2019</v>
-      </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-      <c r="G71">
-        <v>6</v>
-      </c>
-      <c r="H71">
-        <v>24</v>
-      </c>
-      <c r="I71">
-        <v>6.46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72">
-        <v>2019</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-      <c r="G72">
-        <v>6</v>
-      </c>
-      <c r="H72">
-        <v>24</v>
-      </c>
-      <c r="I72">
-        <v>39.42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73">
-        <v>2019</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-      <c r="G73">
-        <v>6</v>
-      </c>
-      <c r="H73">
-        <v>24</v>
-      </c>
-      <c r="I73">
-        <v>256.04000000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74">
-        <v>2019</v>
-      </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-      <c r="G74">
-        <v>6</v>
-      </c>
-      <c r="H74">
-        <v>24</v>
-      </c>
-      <c r="I74">
-        <v>12.27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75">
-        <v>2019</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-      <c r="G75">
-        <v>6</v>
-      </c>
-      <c r="H75">
-        <v>24</v>
-      </c>
-      <c r="I75">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76">
-        <v>2019</v>
-      </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="G76">
-        <v>6</v>
-      </c>
-      <c r="H76">
-        <v>24</v>
-      </c>
-      <c r="I76">
-        <v>32.909999999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77">
-        <v>2019</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-      <c r="G77">
-        <v>6</v>
-      </c>
-      <c r="H77">
-        <v>24</v>
-      </c>
-      <c r="I77">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78">
-        <v>2019</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-      <c r="G78">
-        <v>6</v>
-      </c>
-      <c r="H78">
-        <v>24</v>
-      </c>
-      <c r="I78">
-        <v>35.26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79">
-        <v>2019</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79">
-        <v>6</v>
-      </c>
-      <c r="H79">
-        <v>24</v>
-      </c>
-      <c r="I79">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="s">
-        <v>83</v>
-      </c>
-      <c r="C80" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80">
-        <v>2019</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-      <c r="G80">
-        <v>6</v>
-      </c>
-      <c r="H80">
-        <v>24</v>
-      </c>
-      <c r="I80">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81">
-        <v>2019</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
-        <v>6</v>
-      </c>
-      <c r="H81">
-        <v>24</v>
-      </c>
-      <c r="I81">
-        <v>10.01</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82">
-        <v>2019</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-      <c r="G82">
-        <v>8</v>
-      </c>
-      <c r="H82">
-        <v>22</v>
-      </c>
-      <c r="I82">
-        <v>73.34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83">
-        <v>2019</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="G83">
-        <v>8</v>
-      </c>
-      <c r="H83">
-        <v>22</v>
-      </c>
-      <c r="I83">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84">
-        <v>2019</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="G84">
-        <v>8</v>
-      </c>
-      <c r="H84">
-        <v>22</v>
-      </c>
-      <c r="I84">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85">
-        <v>2019</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-      <c r="G85">
-        <v>8</v>
-      </c>
-      <c r="H85">
-        <v>22</v>
-      </c>
-      <c r="I85">
-        <v>68.88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86">
-        <v>2019</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-      <c r="G86">
-        <v>8</v>
-      </c>
-      <c r="H86">
-        <v>22</v>
-      </c>
-      <c r="I86">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87">
-        <v>2019</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-      <c r="G87">
-        <v>8</v>
-      </c>
-      <c r="H87">
-        <v>22</v>
-      </c>
-      <c r="I87">
-        <v>49.49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88">
-        <v>2019</v>
-      </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-      <c r="G88">
-        <v>8</v>
-      </c>
-      <c r="H88">
-        <v>22</v>
-      </c>
-      <c r="I88">
-        <v>31.57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89">
-        <v>2019</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-      <c r="G89">
-        <v>8</v>
-      </c>
-      <c r="H89">
-        <v>22</v>
-      </c>
-      <c r="I89">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90">
-        <v>2019</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <v>8</v>
-      </c>
-      <c r="H90">
-        <v>22</v>
-      </c>
-      <c r="I90">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" t="s">
-        <v>25</v>
-      </c>
-      <c r="B91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91">
-        <v>2019</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-      <c r="G91">
-        <v>8</v>
-      </c>
-      <c r="H91">
-        <v>22</v>
-      </c>
-      <c r="I91">
-        <v>61.31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92">
-        <v>2019</v>
-      </c>
-      <c r="F92">
-        <v>3</v>
-      </c>
-      <c r="G92">
-        <v>8</v>
-      </c>
-      <c r="H92">
-        <v>22</v>
-      </c>
-      <c r="I92">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" t="s">
-        <v>30</v>
-      </c>
-      <c r="B93" t="s">
-        <v>31</v>
-      </c>
-      <c r="C93" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93">
-        <v>2019</v>
-      </c>
-      <c r="F93">
-        <v>3</v>
-      </c>
-      <c r="G93">
-        <v>8</v>
-      </c>
-      <c r="H93">
-        <v>22</v>
-      </c>
-      <c r="I93">
-        <v>48.11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" t="s">
-        <v>33</v>
-      </c>
-      <c r="B94" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94">
-        <v>2019</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-      <c r="G94">
-        <v>8</v>
-      </c>
-      <c r="H94">
-        <v>22</v>
-      </c>
-      <c r="I94">
-        <v>153.24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" t="s">
-        <v>35</v>
-      </c>
-      <c r="B95" t="s">
-        <v>36</v>
-      </c>
-      <c r="C95" t="s">
-        <v>37</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95">
-        <v>2019</v>
-      </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-      <c r="G95">
-        <v>8</v>
-      </c>
-      <c r="H95">
-        <v>22</v>
-      </c>
-      <c r="I95">
-        <v>198.78</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96">
-        <v>2019</v>
-      </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-      <c r="G96">
-        <v>8</v>
-      </c>
-      <c r="H96">
-        <v>22</v>
-      </c>
-      <c r="I96">
-        <v>47.49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>41</v>
-      </c>
-      <c r="D97" t="s">
-        <v>42</v>
-      </c>
-      <c r="E97">
-        <v>2019</v>
-      </c>
-      <c r="F97">
-        <v>3</v>
-      </c>
-      <c r="G97">
-        <v>8</v>
-      </c>
-      <c r="H97">
-        <v>22</v>
-      </c>
-      <c r="I97">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" t="s">
-        <v>43</v>
-      </c>
-      <c r="B98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" t="s">
-        <v>44</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98">
-        <v>2019</v>
-      </c>
-      <c r="F98">
-        <v>3</v>
-      </c>
-      <c r="G98">
-        <v>8</v>
-      </c>
-      <c r="H98">
-        <v>22</v>
-      </c>
-      <c r="I98">
-        <v>40.619999999999997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
-        <v>45</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99">
-        <v>2019</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99">
-        <v>8</v>
-      </c>
-      <c r="H99">
-        <v>22</v>
-      </c>
-      <c r="I99">
-        <v>69.27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
-        <v>46</v>
-      </c>
-      <c r="B100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C100" t="s">
-        <v>47</v>
-      </c>
-      <c r="D100" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100">
-        <v>2019</v>
-      </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-      <c r="G100">
-        <v>8</v>
-      </c>
-      <c r="H100">
-        <v>22</v>
-      </c>
-      <c r="I100">
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>48</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101">
-        <v>2019</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-      <c r="G101">
-        <v>8</v>
-      </c>
-      <c r="H101">
-        <v>22</v>
-      </c>
-      <c r="I101">
-        <v>29.53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" t="s">
-        <v>49</v>
-      </c>
-      <c r="B102" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" t="s">
-        <v>50</v>
-      </c>
-      <c r="D102" t="s">
-        <v>51</v>
-      </c>
-      <c r="E102">
-        <v>2019</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-      <c r="G102">
-        <v>8</v>
-      </c>
-      <c r="H102">
-        <v>22</v>
-      </c>
-      <c r="I102">
-        <v>19.89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" t="s">
-        <v>52</v>
-      </c>
-      <c r="B103" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" t="s">
-        <v>53</v>
-      </c>
-      <c r="D103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103">
-        <v>2019</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-      <c r="G103">
-        <v>8</v>
-      </c>
-      <c r="H103">
-        <v>22</v>
-      </c>
-      <c r="I103">
-        <v>78.78</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" t="s">
-        <v>54</v>
-      </c>
-      <c r="B104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104" t="s">
-        <v>55</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104">
-        <v>2019</v>
-      </c>
-      <c r="F104">
-        <v>3</v>
-      </c>
-      <c r="G104">
-        <v>8</v>
-      </c>
-      <c r="H104">
-        <v>22</v>
-      </c>
-      <c r="I104">
-        <v>84.46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>57</v>
-      </c>
-      <c r="D105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105">
-        <v>2019</v>
-      </c>
-      <c r="F105">
-        <v>3</v>
-      </c>
-      <c r="G105">
-        <v>8</v>
-      </c>
-      <c r="H105">
-        <v>22</v>
-      </c>
-      <c r="I105">
-        <v>37.75</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" t="s">
-        <v>58</v>
-      </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106">
-        <v>2019</v>
-      </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-      <c r="G106">
-        <v>8</v>
-      </c>
-      <c r="H106">
-        <v>22</v>
-      </c>
-      <c r="I106">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" t="s">
-        <v>59</v>
-      </c>
-      <c r="B107" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" t="s">
-        <v>60</v>
-      </c>
-      <c r="D107" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107">
-        <v>2019</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-      <c r="G107">
-        <v>8</v>
-      </c>
-      <c r="H107">
-        <v>22</v>
-      </c>
-      <c r="I107">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" t="s">
-        <v>61</v>
-      </c>
-      <c r="B108" t="s">
-        <v>36</v>
-      </c>
-      <c r="C108" t="s">
-        <v>62</v>
-      </c>
-      <c r="D108" t="s">
-        <v>63</v>
-      </c>
-      <c r="E108">
-        <v>2019</v>
-      </c>
-      <c r="F108">
-        <v>3</v>
-      </c>
-      <c r="G108">
-        <v>8</v>
-      </c>
-      <c r="H108">
-        <v>22</v>
-      </c>
-      <c r="I108">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" t="s">
-        <v>64</v>
-      </c>
-      <c r="B109" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" t="s">
-        <v>65</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109">
-        <v>2019</v>
-      </c>
-      <c r="F109">
-        <v>3</v>
-      </c>
-      <c r="G109">
-        <v>8</v>
-      </c>
-      <c r="H109">
-        <v>22</v>
-      </c>
-      <c r="I109">
-        <v>81.75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" t="s">
-        <v>66</v>
-      </c>
-      <c r="B110" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" t="s">
-        <v>67</v>
-      </c>
-      <c r="D110" t="s">
-        <v>68</v>
-      </c>
-      <c r="E110">
-        <v>2019</v>
-      </c>
-      <c r="F110">
-        <v>3</v>
-      </c>
-      <c r="G110">
-        <v>8</v>
-      </c>
-      <c r="H110">
-        <v>22</v>
-      </c>
-      <c r="I110">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
-      <c r="B111" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" t="s">
-        <v>60</v>
-      </c>
-      <c r="D111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111">
-        <v>2019</v>
-      </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-      <c r="G111">
-        <v>8</v>
-      </c>
-      <c r="H111">
-        <v>22</v>
-      </c>
-      <c r="I111">
-        <v>6.46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" t="s">
-        <v>70</v>
-      </c>
-      <c r="B112" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" t="s">
-        <v>71</v>
-      </c>
-      <c r="D112" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112">
-        <v>2019</v>
-      </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-      <c r="G112">
-        <v>8</v>
-      </c>
-      <c r="H112">
-        <v>22</v>
-      </c>
-      <c r="I112">
-        <v>39.42</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" t="s">
-        <v>72</v>
-      </c>
-      <c r="B113" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" t="s">
-        <v>73</v>
-      </c>
-      <c r="D113" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113">
-        <v>2019</v>
-      </c>
-      <c r="F113">
-        <v>3</v>
-      </c>
-      <c r="G113">
-        <v>8</v>
-      </c>
-      <c r="H113">
-        <v>22</v>
-      </c>
-      <c r="I113">
-        <v>256.04000000000002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" t="s">
-        <v>74</v>
-      </c>
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
-        <v>75</v>
-      </c>
-      <c r="D114" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114">
-        <v>2019</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-      <c r="G114">
-        <v>8</v>
-      </c>
-      <c r="H114">
-        <v>22</v>
-      </c>
-      <c r="I114">
-        <v>12.27</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" t="s">
-        <v>76</v>
-      </c>
-      <c r="B115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" t="s">
-        <v>73</v>
-      </c>
-      <c r="D115" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115">
-        <v>2019</v>
-      </c>
-      <c r="F115">
-        <v>3</v>
-      </c>
-      <c r="G115">
-        <v>8</v>
-      </c>
-      <c r="H115">
-        <v>22</v>
-      </c>
-      <c r="I115">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" t="s">
-        <v>77</v>
-      </c>
-      <c r="B116" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
-        <v>78</v>
-      </c>
-      <c r="D116" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116">
-        <v>2019</v>
-      </c>
-      <c r="F116">
-        <v>3</v>
-      </c>
-      <c r="G116">
-        <v>8</v>
-      </c>
-      <c r="H116">
-        <v>22</v>
-      </c>
-      <c r="I116">
-        <v>32.909999999999997</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
-        <v>79</v>
-      </c>
-      <c r="B117" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" t="s">
-        <v>60</v>
-      </c>
-      <c r="D117" t="s">
-        <v>42</v>
-      </c>
-      <c r="E117">
-        <v>2019</v>
-      </c>
-      <c r="F117">
-        <v>3</v>
-      </c>
-      <c r="G117">
-        <v>8</v>
-      </c>
-      <c r="H117">
-        <v>22</v>
-      </c>
-      <c r="I117">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" t="s">
-        <v>80</v>
-      </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118">
-        <v>2019</v>
-      </c>
-      <c r="F118">
-        <v>3</v>
-      </c>
-      <c r="G118">
-        <v>8</v>
-      </c>
-      <c r="H118">
-        <v>22</v>
-      </c>
-      <c r="I118">
-        <v>35.26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" t="s">
-        <v>81</v>
-      </c>
-      <c r="B119" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119">
-        <v>2019</v>
-      </c>
-      <c r="F119">
-        <v>3</v>
-      </c>
-      <c r="G119">
-        <v>8</v>
-      </c>
-      <c r="H119">
-        <v>22</v>
-      </c>
-      <c r="I119">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" t="s">
-        <v>82</v>
-      </c>
-      <c r="B120" t="s">
-        <v>83</v>
-      </c>
-      <c r="C120" t="s">
-        <v>83</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120">
-        <v>2019</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-      <c r="G120">
-        <v>8</v>
-      </c>
-      <c r="H120">
-        <v>22</v>
-      </c>
-      <c r="I120">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" t="s">
-        <v>82</v>
-      </c>
-      <c r="B121" t="s">
-        <v>83</v>
-      </c>
-      <c r="C121" t="s">
-        <v>83</v>
-      </c>
-      <c r="D121" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121">
-        <v>2019</v>
-      </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-      <c r="G121">
-        <v>8</v>
-      </c>
-      <c r="H121">
-        <v>22</v>
-      </c>
-      <c r="I121">
-        <v>10.01</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122">
-        <v>2019</v>
-      </c>
-      <c r="F122">
-        <v>3</v>
-      </c>
-      <c r="G122">
-        <v>8</v>
-      </c>
-      <c r="H122">
-        <v>24</v>
-      </c>
-      <c r="I122">
-        <v>73.34</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123">
-        <v>2019</v>
-      </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-      <c r="G123">
-        <v>8</v>
-      </c>
-      <c r="H123">
-        <v>24</v>
-      </c>
-      <c r="I123">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" t="s">
-        <v>12</v>
-      </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124">
-        <v>2019</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
-      </c>
-      <c r="G124">
-        <v>8</v>
-      </c>
-      <c r="H124">
-        <v>24</v>
-      </c>
-      <c r="I124">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125">
-        <v>2019</v>
-      </c>
-      <c r="F125">
-        <v>3</v>
-      </c>
-      <c r="G125">
-        <v>8</v>
-      </c>
-      <c r="H125">
-        <v>24</v>
-      </c>
-      <c r="I125">
-        <v>68.88</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" t="s">
-        <v>16</v>
-      </c>
-      <c r="B126" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126">
-        <v>2019</v>
-      </c>
-      <c r="F126">
-        <v>3</v>
-      </c>
-      <c r="G126">
-        <v>8</v>
-      </c>
-      <c r="H126">
-        <v>24</v>
-      </c>
-      <c r="I126">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" t="s">
-        <v>18</v>
-      </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127">
-        <v>2019</v>
-      </c>
-      <c r="F127">
-        <v>3</v>
-      </c>
-      <c r="G127">
-        <v>8</v>
-      </c>
-      <c r="H127">
-        <v>24</v>
-      </c>
-      <c r="I127">
-        <v>49.49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" t="s">
-        <v>19</v>
-      </c>
-      <c r="B128" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128">
-        <v>2019</v>
-      </c>
-      <c r="F128">
-        <v>3</v>
-      </c>
-      <c r="G128">
-        <v>8</v>
-      </c>
-      <c r="H128">
-        <v>24</v>
-      </c>
-      <c r="I128">
-        <v>31.57</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" t="s">
-        <v>22</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129">
-        <v>2019</v>
-      </c>
-      <c r="F129">
-        <v>3</v>
-      </c>
-      <c r="G129">
-        <v>8</v>
-      </c>
-      <c r="H129">
-        <v>24</v>
-      </c>
-      <c r="I129">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
-        <v>24</v>
-      </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130">
-        <v>2019</v>
-      </c>
-      <c r="F130">
-        <v>3</v>
-      </c>
-      <c r="G130">
-        <v>8</v>
-      </c>
-      <c r="H130">
-        <v>24</v>
-      </c>
-      <c r="I130">
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" t="s">
-        <v>25</v>
-      </c>
-      <c r="B131" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" t="s">
-        <v>26</v>
-      </c>
-      <c r="D131" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131">
-        <v>2019</v>
-      </c>
-      <c r="F131">
-        <v>3</v>
-      </c>
-      <c r="G131">
-        <v>8</v>
-      </c>
-      <c r="H131">
-        <v>24</v>
-      </c>
-      <c r="I131">
-        <v>61.31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" t="s">
-        <v>27</v>
-      </c>
-      <c r="B132" t="s">
-        <v>28</v>
-      </c>
-      <c r="C132" t="s">
-        <v>29</v>
-      </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132">
-        <v>2019</v>
-      </c>
-      <c r="F132">
-        <v>3</v>
-      </c>
-      <c r="G132">
-        <v>8</v>
-      </c>
-      <c r="H132">
-        <v>24</v>
-      </c>
-      <c r="I132">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" t="s">
-        <v>30</v>
-      </c>
-      <c r="B133" t="s">
-        <v>31</v>
-      </c>
-      <c r="C133" t="s">
-        <v>32</v>
-      </c>
-      <c r="D133" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133">
-        <v>2019</v>
-      </c>
-      <c r="F133">
-        <v>3</v>
-      </c>
-      <c r="G133">
-        <v>8</v>
-      </c>
-      <c r="H133">
-        <v>24</v>
-      </c>
-      <c r="I133">
-        <v>48.11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" t="s">
-        <v>33</v>
-      </c>
-      <c r="B134" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" t="s">
-        <v>34</v>
-      </c>
-      <c r="D134" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134">
-        <v>2019</v>
-      </c>
-      <c r="F134">
-        <v>3</v>
-      </c>
-      <c r="G134">
-        <v>8</v>
-      </c>
-      <c r="H134">
-        <v>24</v>
-      </c>
-      <c r="I134">
-        <v>153.24</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" t="s">
-        <v>35</v>
-      </c>
-      <c r="B135" t="s">
-        <v>36</v>
-      </c>
-      <c r="C135" t="s">
-        <v>37</v>
-      </c>
-      <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135">
-        <v>2019</v>
-      </c>
-      <c r="F135">
-        <v>3</v>
-      </c>
-      <c r="G135">
-        <v>8</v>
-      </c>
-      <c r="H135">
-        <v>24</v>
-      </c>
-      <c r="I135">
-        <v>198.78</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" t="s">
-        <v>38</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
-        <v>39</v>
-      </c>
-      <c r="D136" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136">
-        <v>2019</v>
-      </c>
-      <c r="F136">
-        <v>3</v>
-      </c>
-      <c r="G136">
-        <v>8</v>
-      </c>
-      <c r="H136">
-        <v>24</v>
-      </c>
-      <c r="I136">
-        <v>47.49</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" t="s">
-        <v>40</v>
-      </c>
-      <c r="B137" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" t="s">
-        <v>41</v>
-      </c>
-      <c r="D137" t="s">
-        <v>42</v>
-      </c>
-      <c r="E137">
-        <v>2019</v>
-      </c>
-      <c r="F137">
-        <v>3</v>
-      </c>
-      <c r="G137">
-        <v>8</v>
-      </c>
-      <c r="H137">
-        <v>24</v>
-      </c>
-      <c r="I137">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" t="s">
-        <v>43</v>
-      </c>
-      <c r="B138" t="s">
-        <v>20</v>
-      </c>
-      <c r="C138" t="s">
-        <v>44</v>
-      </c>
-      <c r="D138" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138">
-        <v>2019</v>
-      </c>
-      <c r="F138">
-        <v>3</v>
-      </c>
-      <c r="G138">
-        <v>8</v>
-      </c>
-      <c r="H138">
-        <v>24</v>
-      </c>
-      <c r="I138">
-        <v>40.619999999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" t="s">
-        <v>45</v>
-      </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139">
-        <v>2019</v>
-      </c>
-      <c r="F139">
-        <v>3</v>
-      </c>
-      <c r="G139">
-        <v>8</v>
-      </c>
-      <c r="H139">
-        <v>24</v>
-      </c>
-      <c r="I139">
-        <v>69.27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" t="s">
-        <v>46</v>
-      </c>
-      <c r="B140" t="s">
-        <v>31</v>
-      </c>
-      <c r="C140" t="s">
-        <v>47</v>
-      </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140">
-        <v>2019</v>
-      </c>
-      <c r="F140">
-        <v>3</v>
-      </c>
-      <c r="G140">
-        <v>8</v>
-      </c>
-      <c r="H140">
-        <v>24</v>
-      </c>
-      <c r="I140">
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" t="s">
-        <v>48</v>
-      </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141">
-        <v>2019</v>
-      </c>
-      <c r="F141">
-        <v>3</v>
-      </c>
-      <c r="G141">
-        <v>8</v>
-      </c>
-      <c r="H141">
-        <v>24</v>
-      </c>
-      <c r="I141">
-        <v>29.53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" t="s">
-        <v>49</v>
-      </c>
-      <c r="B142" t="s">
-        <v>31</v>
-      </c>
-      <c r="C142" t="s">
-        <v>50</v>
-      </c>
-      <c r="D142" t="s">
-        <v>51</v>
-      </c>
-      <c r="E142">
-        <v>2019</v>
-      </c>
-      <c r="F142">
-        <v>3</v>
-      </c>
-      <c r="G142">
-        <v>8</v>
-      </c>
-      <c r="H142">
-        <v>24</v>
-      </c>
-      <c r="I142">
-        <v>19.89</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" t="s">
-        <v>52</v>
-      </c>
-      <c r="B143" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" t="s">
-        <v>53</v>
-      </c>
-      <c r="D143" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143">
-        <v>2019</v>
-      </c>
-      <c r="F143">
-        <v>3</v>
-      </c>
-      <c r="G143">
-        <v>8</v>
-      </c>
-      <c r="H143">
-        <v>24</v>
-      </c>
-      <c r="I143">
-        <v>78.78</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" t="s">
-        <v>54</v>
-      </c>
-      <c r="B144" t="s">
-        <v>20</v>
-      </c>
-      <c r="C144" t="s">
-        <v>55</v>
-      </c>
-      <c r="D144" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144">
-        <v>2019</v>
-      </c>
-      <c r="F144">
-        <v>3</v>
-      </c>
-      <c r="G144">
-        <v>8</v>
-      </c>
-      <c r="H144">
-        <v>24</v>
-      </c>
-      <c r="I144">
-        <v>84.46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" t="s">
-        <v>56</v>
-      </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>57</v>
-      </c>
-      <c r="D145" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145">
-        <v>2019</v>
-      </c>
-      <c r="F145">
-        <v>3</v>
-      </c>
-      <c r="G145">
-        <v>8</v>
-      </c>
-      <c r="H145">
-        <v>24</v>
-      </c>
-      <c r="I145">
-        <v>37.75</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" t="s">
-        <v>58</v>
-      </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146">
-        <v>2019</v>
-      </c>
-      <c r="F146">
-        <v>3</v>
-      </c>
-      <c r="G146">
-        <v>8</v>
-      </c>
-      <c r="H146">
-        <v>24</v>
-      </c>
-      <c r="I146">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" t="s">
-        <v>59</v>
-      </c>
-      <c r="B147" t="s">
-        <v>6</v>
-      </c>
-      <c r="C147" t="s">
-        <v>60</v>
-      </c>
-      <c r="D147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147">
-        <v>2019</v>
-      </c>
-      <c r="F147">
-        <v>3</v>
-      </c>
-      <c r="G147">
-        <v>8</v>
-      </c>
-      <c r="H147">
-        <v>24</v>
-      </c>
-      <c r="I147">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" t="s">
-        <v>61</v>
-      </c>
-      <c r="B148" t="s">
-        <v>36</v>
-      </c>
-      <c r="C148" t="s">
-        <v>62</v>
-      </c>
-      <c r="D148" t="s">
-        <v>63</v>
-      </c>
-      <c r="E148">
-        <v>2019</v>
-      </c>
-      <c r="F148">
-        <v>3</v>
-      </c>
-      <c r="G148">
-        <v>8</v>
-      </c>
-      <c r="H148">
-        <v>24</v>
-      </c>
-      <c r="I148">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" t="s">
-        <v>64</v>
-      </c>
-      <c r="B149" t="s">
-        <v>20</v>
-      </c>
-      <c r="C149" t="s">
-        <v>65</v>
-      </c>
-      <c r="D149" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149">
-        <v>2019</v>
-      </c>
-      <c r="F149">
-        <v>3</v>
-      </c>
-      <c r="G149">
-        <v>8</v>
-      </c>
-      <c r="H149">
-        <v>24</v>
-      </c>
-      <c r="I149">
-        <v>81.75</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" t="s">
-        <v>66</v>
-      </c>
-      <c r="B150" t="s">
-        <v>28</v>
-      </c>
-      <c r="C150" t="s">
-        <v>67</v>
-      </c>
-      <c r="D150" t="s">
-        <v>68</v>
-      </c>
-      <c r="E150">
-        <v>2019</v>
-      </c>
-      <c r="F150">
-        <v>3</v>
-      </c>
-      <c r="G150">
-        <v>8</v>
-      </c>
-      <c r="H150">
-        <v>24</v>
-      </c>
-      <c r="I150">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" t="s">
-        <v>69</v>
-      </c>
-      <c r="B151" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" t="s">
-        <v>60</v>
-      </c>
-      <c r="D151" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151">
-        <v>2019</v>
-      </c>
-      <c r="F151">
-        <v>3</v>
-      </c>
-      <c r="G151">
-        <v>8</v>
-      </c>
-      <c r="H151">
-        <v>24</v>
-      </c>
-      <c r="I151">
-        <v>6.46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" t="s">
-        <v>70</v>
-      </c>
-      <c r="B152" t="s">
-        <v>20</v>
-      </c>
-      <c r="C152" t="s">
-        <v>71</v>
-      </c>
-      <c r="D152" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152">
-        <v>2019</v>
-      </c>
-      <c r="F152">
-        <v>3</v>
-      </c>
-      <c r="G152">
-        <v>8</v>
-      </c>
-      <c r="H152">
-        <v>24</v>
-      </c>
-      <c r="I152">
-        <v>39.42</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" t="s">
-        <v>72</v>
-      </c>
-      <c r="B153" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" t="s">
-        <v>73</v>
-      </c>
-      <c r="D153" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153">
-        <v>2019</v>
-      </c>
-      <c r="F153">
-        <v>3</v>
-      </c>
-      <c r="G153">
-        <v>8</v>
-      </c>
-      <c r="H153">
-        <v>24</v>
-      </c>
-      <c r="I153">
-        <v>256.04000000000002</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" t="s">
-        <v>74</v>
-      </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>75</v>
-      </c>
-      <c r="D154" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154">
-        <v>2019</v>
-      </c>
-      <c r="F154">
-        <v>3</v>
-      </c>
-      <c r="G154">
-        <v>8</v>
-      </c>
-      <c r="H154">
-        <v>24</v>
-      </c>
-      <c r="I154">
-        <v>12.27</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" t="s">
-        <v>76</v>
-      </c>
-      <c r="B155" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" t="s">
-        <v>73</v>
-      </c>
-      <c r="D155" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155">
-        <v>2019</v>
-      </c>
-      <c r="F155">
-        <v>3</v>
-      </c>
-      <c r="G155">
-        <v>8</v>
-      </c>
-      <c r="H155">
-        <v>24</v>
-      </c>
-      <c r="I155">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" t="s">
-        <v>77</v>
-      </c>
-      <c r="B156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
-        <v>78</v>
-      </c>
-      <c r="D156" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156">
-        <v>2019</v>
-      </c>
-      <c r="F156">
-        <v>3</v>
-      </c>
-      <c r="G156">
-        <v>8</v>
-      </c>
-      <c r="H156">
-        <v>24</v>
-      </c>
-      <c r="I156">
-        <v>32.909999999999997</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" t="s">
-        <v>79</v>
-      </c>
-      <c r="B157" t="s">
-        <v>6</v>
-      </c>
-      <c r="C157" t="s">
-        <v>60</v>
-      </c>
-      <c r="D157" t="s">
-        <v>42</v>
-      </c>
-      <c r="E157">
-        <v>2019</v>
-      </c>
-      <c r="F157">
-        <v>3</v>
-      </c>
-      <c r="G157">
-        <v>8</v>
-      </c>
-      <c r="H157">
-        <v>24</v>
-      </c>
-      <c r="I157">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" t="s">
-        <v>80</v>
-      </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158">
-        <v>2019</v>
-      </c>
-      <c r="F158">
-        <v>3</v>
-      </c>
-      <c r="G158">
-        <v>8</v>
-      </c>
-      <c r="H158">
-        <v>24</v>
-      </c>
-      <c r="I158">
-        <v>35.26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" t="s">
-        <v>81</v>
-      </c>
-      <c r="B159" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" t="s">
-        <v>60</v>
-      </c>
-      <c r="D159" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159">
-        <v>2019</v>
-      </c>
-      <c r="F159">
-        <v>3</v>
-      </c>
-      <c r="G159">
-        <v>8</v>
-      </c>
-      <c r="H159">
-        <v>24</v>
-      </c>
-      <c r="I159">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" t="s">
-        <v>82</v>
-      </c>
-      <c r="B160" t="s">
-        <v>83</v>
-      </c>
-      <c r="C160" t="s">
-        <v>83</v>
-      </c>
-      <c r="D160" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160">
-        <v>2019</v>
-      </c>
-      <c r="F160">
-        <v>3</v>
-      </c>
-      <c r="G160">
-        <v>8</v>
-      </c>
-      <c r="H160">
-        <v>24</v>
-      </c>
-      <c r="I160">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" t="s">
-        <v>82</v>
-      </c>
-      <c r="B161" t="s">
-        <v>83</v>
-      </c>
-      <c r="C161" t="s">
-        <v>83</v>
-      </c>
-      <c r="D161" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161">
-        <v>2019</v>
-      </c>
-      <c r="F161">
-        <v>3</v>
-      </c>
-      <c r="G161">
-        <v>8</v>
-      </c>
-      <c r="H161">
-        <v>24</v>
-      </c>
-      <c r="I161">
-        <v>10.01</v>
       </c>
     </row>
   </sheetData>
@@ -5310,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestDrivenDev/TDD_PivotStructure/PivoteerWPF/ProjectSamples/Stocks.xlsx
+++ b/TestDrivenDev/TDD_PivotStructure/PivoteerWPF/ProjectSamples/Stocks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="89">
   <si>
     <t>Sector</t>
   </si>
@@ -613,15 +613,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -632,13 +634,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -661,13 +663,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -690,13 +692,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -719,13 +721,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -748,13 +750,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -777,13 +779,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -806,13 +808,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -835,13 +837,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -864,30 +866,262 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2019</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>68.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2018</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>73.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2018</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>2019</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>22</v>
-      </c>
-      <c r="I9">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>68.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>73.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>2018</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>2018</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="I17">
         <v>68.88</v>
       </c>
     </row>
@@ -900,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestDrivenDev/TDD_PivotStructure/PivoteerWPF/ProjectSamples/Stocks.xlsx
+++ b/TestDrivenDev/TDD_PivotStructure/PivoteerWPF/ProjectSamples/Stocks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="89">
   <si>
     <t>Sector</t>
   </si>
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,15 +624,14 @@
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,25 +642,22 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -671,26 +667,23 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="D2">
+        <v>2019</v>
       </c>
       <c r="E2">
-        <v>2019</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H2">
-        <v>22</v>
-      </c>
-      <c r="I2">
         <v>73.34</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -700,26 +693,23 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3">
+        <v>2019</v>
       </c>
       <c r="E3">
-        <v>2019</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>22</v>
-      </c>
-      <c r="I3">
         <v>22.6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -729,26 +719,23 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
+      <c r="D4">
+        <v>2019</v>
       </c>
       <c r="E4">
-        <v>2019</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>22</v>
-      </c>
-      <c r="I4">
         <v>13.98</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -758,26 +745,23 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="D5">
+        <v>2019</v>
       </c>
       <c r="E5">
-        <v>2019</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>22</v>
-      </c>
-      <c r="I5">
         <v>68.88</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -787,26 +771,23 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
+      <c r="D6">
+        <v>2019</v>
       </c>
       <c r="E6">
-        <v>2019</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>22</v>
-      </c>
-      <c r="I6">
         <v>73.34</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -816,26 +797,23 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
+      <c r="D7">
+        <v>2019</v>
       </c>
       <c r="E7">
-        <v>2019</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>22</v>
-      </c>
-      <c r="I7">
         <v>22.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -845,26 +823,23 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
+      <c r="D8">
+        <v>2019</v>
       </c>
       <c r="E8">
-        <v>2019</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>22</v>
-      </c>
-      <c r="I8">
         <v>13.98</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -874,26 +849,23 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
+      <c r="D9">
+        <v>2019</v>
       </c>
       <c r="E9">
-        <v>2019</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H9">
-        <v>22</v>
-      </c>
-      <c r="I9">
         <v>68.88</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -903,26 +875,23 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
+      <c r="D10">
+        <v>2018</v>
       </c>
       <c r="E10">
-        <v>2018</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>22</v>
-      </c>
-      <c r="I10">
         <v>73.34</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -932,26 +901,23 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
+      <c r="D11">
+        <v>2018</v>
       </c>
       <c r="E11">
-        <v>2018</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>22</v>
-      </c>
-      <c r="I11">
         <v>22.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -961,26 +927,23 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
+      <c r="D12">
+        <v>2018</v>
       </c>
       <c r="E12">
-        <v>2018</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H12">
-        <v>22</v>
-      </c>
-      <c r="I12">
         <v>13.98</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -990,26 +953,23 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
+      <c r="D13">
+        <v>2018</v>
       </c>
       <c r="E13">
-        <v>2018</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H13">
-        <v>22</v>
-      </c>
-      <c r="I13">
         <v>68.88</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1019,26 +979,23 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
+      <c r="D14">
+        <v>2018</v>
       </c>
       <c r="E14">
-        <v>2018</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H14">
-        <v>22</v>
-      </c>
-      <c r="I14">
         <v>73.34</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1048,26 +1005,23 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
+      <c r="D15">
+        <v>2018</v>
       </c>
       <c r="E15">
-        <v>2018</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>22</v>
-      </c>
-      <c r="I15">
         <v>22.6</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1077,26 +1031,23 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
+      <c r="D16">
+        <v>2018</v>
       </c>
       <c r="E16">
-        <v>2018</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H16">
-        <v>22</v>
-      </c>
-      <c r="I16">
         <v>13.98</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1106,23 +1057,436 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
+      <c r="D17">
+        <v>2018</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>68.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2019</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>74.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>2019</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>2019</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>2019</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>69.88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2019</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>78.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>2019</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>2019</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>2019</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>68.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
         <v>2018</v>
       </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>22</v>
-      </c>
-      <c r="I17">
-        <v>68.88</v>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>73.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>2018</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>2018</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>2018</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>64.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>2018</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>65.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>2018</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>2018</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>2018</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>63.88</v>
       </c>
     </row>
   </sheetData>
